--- a/Code/Results/Cases/Case_3_234/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_234/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9534549399228638</v>
+        <v>1.044143055898587</v>
       </c>
       <c r="C2">
-        <v>0.09002155266473366</v>
+        <v>0.06022667446837104</v>
       </c>
       <c r="D2">
-        <v>0.463159479317369</v>
+        <v>0.3270776345368063</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>7.01461314810237</v>
+        <v>4.778112276208446</v>
       </c>
       <c r="G2">
-        <v>0.0008570062347810306</v>
+        <v>0.002614359305205317</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6987540707579996</v>
+        <v>0.5438196910038471</v>
       </c>
       <c r="L2">
-        <v>0.2131705083339028</v>
+        <v>0.2628897277578517</v>
       </c>
       <c r="M2">
-        <v>0.2356908167478018</v>
+        <v>0.2749282348159738</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8391424912132095</v>
+        <v>1.028915416720679</v>
       </c>
       <c r="C3">
-        <v>0.08281130315415908</v>
+        <v>0.05801084374200727</v>
       </c>
       <c r="D3">
-        <v>0.42519942100175</v>
+        <v>0.3144497402019226</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>6.304015796396726</v>
+        <v>4.564674969141379</v>
       </c>
       <c r="G3">
-        <v>0.0008656835534762502</v>
+        <v>0.002619346392822724</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6025103821367281</v>
+        <v>0.530062495270613</v>
       </c>
       <c r="L3">
-        <v>0.193611729694247</v>
+        <v>0.2589639369865324</v>
       </c>
       <c r="M3">
-        <v>0.2098444457282334</v>
+        <v>0.2709598082021856</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7711782060278267</v>
+        <v>1.020502663823834</v>
       </c>
       <c r="C4">
-        <v>0.07845628353344836</v>
+        <v>0.05660976884723112</v>
       </c>
       <c r="D4">
-        <v>0.4021344814326824</v>
+        <v>0.3066083428495858</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>5.874193638872356</v>
+        <v>4.43378742677848</v>
       </c>
       <c r="G4">
-        <v>0.0008711434175176913</v>
+        <v>0.002622566071081746</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.545231357728909</v>
+        <v>0.5222778340966983</v>
       </c>
       <c r="L4">
-        <v>0.181906336550874</v>
+        <v>0.2566710397393948</v>
       </c>
       <c r="M4">
-        <v>0.1944473341281601</v>
+        <v>0.2687222581441588</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7439856670507368</v>
+        <v>1.017309622114709</v>
       </c>
       <c r="C5">
-        <v>0.07669439990344884</v>
+        <v>0.05602844316561928</v>
       </c>
       <c r="D5">
-        <v>0.3927825958324007</v>
+        <v>0.3033904164351924</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>5.700428564858697</v>
+        <v>4.380486876569421</v>
       </c>
       <c r="G5">
-        <v>0.0008734033000199026</v>
+        <v>0.00262391788221197</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5222945077114787</v>
+        <v>0.5192714361903086</v>
       </c>
       <c r="L5">
-        <v>0.177205535351348</v>
+        <v>0.2557661997502336</v>
       </c>
       <c r="M5">
-        <v>0.1882803494640299</v>
+        <v>0.2678604371157043</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7394992331703349</v>
+        <v>1.016793615113357</v>
       </c>
       <c r="C6">
-        <v>0.07640246900270142</v>
+        <v>0.05593128250278312</v>
       </c>
       <c r="D6">
-        <v>0.3912321954014715</v>
+        <v>0.3028547116848728</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>5.671652359118298</v>
+        <v>4.371638490438698</v>
       </c>
       <c r="G6">
-        <v>0.0008737807113377016</v>
+        <v>0.002624144755269342</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5185088879011488</v>
+        <v>0.5187822287900445</v>
       </c>
       <c r="L6">
-        <v>0.1764289548842868</v>
+        <v>0.2556177348442077</v>
       </c>
       <c r="M6">
-        <v>0.1872625018362477</v>
+        <v>0.2677203504595163</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7708095097293892</v>
+        <v>1.020458649480332</v>
       </c>
       <c r="C7">
-        <v>0.07843247689702793</v>
+        <v>0.05660197113562049</v>
       </c>
       <c r="D7">
-        <v>0.4020081846552301</v>
+        <v>0.3065650363785295</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>5.871844853927428</v>
+        <v>4.433068451652304</v>
       </c>
       <c r="G7">
-        <v>0.0008711737514463571</v>
+        <v>0.002622584140959106</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5449204491726789</v>
+        <v>0.5222366178103215</v>
       </c>
       <c r="L7">
-        <v>0.1818426685715337</v>
+        <v>0.2566587171994854</v>
       </c>
       <c r="M7">
-        <v>0.1943637432651499</v>
+        <v>0.2687104329613597</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9135432645863091</v>
+        <v>1.03869781357858</v>
       </c>
       <c r="C8">
-        <v>0.08751713687851037</v>
+        <v>0.05947096216314307</v>
       </c>
       <c r="D8">
-        <v>0.4500118350891285</v>
+        <v>0.322741513323578</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>6.768101510177274</v>
+        <v>4.7044826052269</v>
       </c>
       <c r="G8">
-        <v>0.0008599718927397862</v>
+        <v>0.002616046230353132</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6651600282430223</v>
+        <v>0.5389383579275062</v>
       </c>
       <c r="L8">
-        <v>0.2063591012159094</v>
+        <v>0.2615116990359354</v>
       </c>
       <c r="M8">
-        <v>0.2266737147163695</v>
+        <v>0.2735185622772498</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.213894234331718</v>
+        <v>1.081923360638257</v>
       </c>
       <c r="C9">
-        <v>0.1061732038880585</v>
+        <v>0.06478356804336372</v>
       </c>
       <c r="D9">
-        <v>0.5467595803515337</v>
+        <v>0.3537863677284037</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>8.589172925000867</v>
+        <v>5.238232127359481</v>
       </c>
       <c r="G9">
-        <v>0.0008389642954564355</v>
+        <v>0.00260446939393711</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9179468843529435</v>
+        <v>0.5769775059563642</v>
       </c>
       <c r="L9">
-        <v>0.2572034573914408</v>
+        <v>0.2719631277731622</v>
       </c>
       <c r="M9">
-        <v>0.2943554859333943</v>
+        <v>0.2845307687727967</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.451438311835517</v>
+        <v>1.118267180026351</v>
       </c>
       <c r="C10">
-        <v>0.1208203600251672</v>
+        <v>0.06850716210200147</v>
       </c>
       <c r="D10">
-        <v>0.6205052474484489</v>
+        <v>0.3762110059565202</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9.984675527181849</v>
+        <v>5.631621853487246</v>
       </c>
       <c r="G10">
-        <v>0.0008239780500160021</v>
+        <v>0.002596713283677366</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.11812331549919</v>
+        <v>0.6081973809864678</v>
       </c>
       <c r="L10">
-        <v>0.2968043204909776</v>
+        <v>0.2802156436616627</v>
       </c>
       <c r="M10">
-        <v>0.3476129672297645</v>
+        <v>0.2935937150799006</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.564313407452374</v>
+        <v>1.135805831765424</v>
       </c>
       <c r="C11">
-        <v>0.1278012939760202</v>
+        <v>0.07016462934291923</v>
       </c>
       <c r="D11">
-        <v>0.6549084690736322</v>
+        <v>0.3863354803887376</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>10.63687902616101</v>
+        <v>5.810928109450572</v>
       </c>
       <c r="G11">
-        <v>0.0008172226531962268</v>
+        <v>0.002593345632172284</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.213394776498262</v>
+        <v>0.6231218838657071</v>
       </c>
       <c r="L11">
-        <v>0.3154507814682148</v>
+        <v>0.2840954999655168</v>
       </c>
       <c r="M11">
-        <v>0.372840191041611</v>
+        <v>0.2979294529345395</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.607859729397177</v>
+        <v>1.14259252223431</v>
       </c>
       <c r="C12">
-        <v>0.1305017072098948</v>
+        <v>0.07078723403239096</v>
       </c>
       <c r="D12">
-        <v>0.6680856308919658</v>
+        <v>0.3901588148048347</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>10.88681736897615</v>
+        <v>5.878882407021194</v>
       </c>
       <c r="G12">
-        <v>0.0008146701086991482</v>
+        <v>0.002592093343602433</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.250180938467253</v>
+        <v>0.6288781283609239</v>
       </c>
       <c r="L12">
-        <v>0.3226163040036027</v>
+        <v>0.2855828401754223</v>
       </c>
       <c r="M12">
-        <v>0.3825593144217834</v>
+        <v>0.2996020173551273</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.598443610428262</v>
+        <v>1.14112442065607</v>
       </c>
       <c r="C13">
-        <v>0.1299173984120401</v>
+        <v>0.07065336611861284</v>
       </c>
       <c r="D13">
-        <v>0.6652405914973087</v>
+        <v>0.3893358551744939</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>10.83284884546873</v>
+        <v>5.864244720440126</v>
       </c>
       <c r="G13">
-        <v>0.0008152196546024257</v>
+        <v>0.002592362026974328</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.242225043294127</v>
+        <v>0.6276337508508334</v>
       </c>
       <c r="L13">
-        <v>0.3210681955322059</v>
+        <v>0.2852617081619542</v>
       </c>
       <c r="M13">
-        <v>0.3804583509892439</v>
+        <v>0.2992404331469629</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.567879208380731</v>
+        <v>1.136361263847562</v>
       </c>
       <c r="C14">
-        <v>0.128022248381189</v>
+        <v>0.07021595134076719</v>
       </c>
       <c r="D14">
-        <v>0.6559894044779639</v>
+        <v>0.3866502380567454</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>10.65737934456695</v>
+        <v>5.81651762455391</v>
       </c>
       <c r="G14">
-        <v>0.0008170125626084349</v>
+        <v>0.002593242146158802</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.216406342663561</v>
+        <v>0.6235933515402223</v>
       </c>
       <c r="L14">
-        <v>0.3160381141149884</v>
+        <v>0.2842175008911454</v>
       </c>
       <c r="M14">
-        <v>0.3736363212109666</v>
+        <v>0.2980664397133026</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.549265743998404</v>
+        <v>1.133462617199484</v>
       </c>
       <c r="C15">
-        <v>0.1268691832688233</v>
+        <v>0.06994737130633766</v>
       </c>
       <c r="D15">
-        <v>0.6503430833462858</v>
+        <v>0.3850038544867971</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>10.55029989075786</v>
+        <v>5.787290682540856</v>
       </c>
       <c r="G15">
-        <v>0.0008181113904958675</v>
+        <v>0.002593784231768284</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.200687288865311</v>
+        <v>0.6211321432989223</v>
       </c>
       <c r="L15">
-        <v>0.3129710903613727</v>
+        <v>0.283580255157716</v>
       </c>
       <c r="M15">
-        <v>0.3694799786424809</v>
+        <v>0.297351337558581</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.444167661443913</v>
+        <v>1.117141272788473</v>
       </c>
       <c r="C16">
-        <v>0.1203714533066993</v>
+        <v>0.06839812653347366</v>
       </c>
       <c r="D16">
-        <v>0.618276312791977</v>
+        <v>0.375547843066073</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>9.942440520029891</v>
+        <v>5.619911211206897</v>
       </c>
       <c r="G16">
-        <v>0.0008244205025906065</v>
+        <v>0.00259693658881998</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.111990343275693</v>
+        <v>0.6072366325692826</v>
       </c>
       <c r="L16">
-        <v>0.2955995721267755</v>
+        <v>0.2799646196908867</v>
       </c>
       <c r="M16">
-        <v>0.3459862731102348</v>
+        <v>0.2933146574155927</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.381000690300084</v>
+        <v>1.107386631837329</v>
       </c>
       <c r="C17">
-        <v>0.1164741573139274</v>
+        <v>0.0674385261452386</v>
       </c>
       <c r="D17">
-        <v>0.5988412953969942</v>
+        <v>0.3697275719801212</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>9.574301656766579</v>
+        <v>5.517322410133318</v>
       </c>
       <c r="G17">
-        <v>0.0008283045639144415</v>
+        <v>0.002598911508012567</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.058725189885934</v>
+        <v>0.598897763726967</v>
       </c>
       <c r="L17">
-        <v>0.2851137121473073</v>
+        <v>0.2777787792854127</v>
       </c>
       <c r="M17">
-        <v>0.3318447554985013</v>
+        <v>0.2908928925530176</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.34511449391843</v>
+        <v>1.101870643240176</v>
       </c>
       <c r="C18">
-        <v>0.114261694770132</v>
+        <v>0.06688315019242097</v>
       </c>
       <c r="D18">
-        <v>0.587741589641297</v>
+        <v>0.3663726695237557</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>9.364162954667478</v>
+        <v>5.458348844485386</v>
       </c>
       <c r="G18">
-        <v>0.0008305446244161877</v>
+        <v>0.002600062557407275</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.028477781123939</v>
+        <v>0.5941694176621013</v>
       </c>
       <c r="L18">
-        <v>0.279141079596414</v>
+        <v>0.2765333748987047</v>
       </c>
       <c r="M18">
-        <v>0.32380356654172</v>
+        <v>0.2895199964024044</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.333037478678932</v>
+        <v>1.10001925875946</v>
       </c>
       <c r="C19">
-        <v>0.1135172873066637</v>
+        <v>0.0666945128623837</v>
       </c>
       <c r="D19">
-        <v>0.5839962068842084</v>
+        <v>0.3652355012227275</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>9.293276113916164</v>
+        <v>5.438386908868637</v>
       </c>
       <c r="G19">
-        <v>0.0008313042041025645</v>
+        <v>0.00260045488532778</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.01830046711865</v>
+        <v>0.5925801281685779</v>
       </c>
       <c r="L19">
-        <v>0.2771285179573511</v>
+        <v>0.2761137335239567</v>
       </c>
       <c r="M19">
-        <v>0.3210962368381942</v>
+        <v>0.2890585963321186</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.387678033066209</v>
+        <v>1.108415232857936</v>
       </c>
       <c r="C20">
-        <v>0.1168859376349474</v>
+        <v>0.06754103178256798</v>
       </c>
       <c r="D20">
-        <v>0.6009018505865242</v>
+        <v>0.370347895588452</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>9.613321386819337</v>
+        <v>5.528239736895699</v>
       </c>
       <c r="G20">
-        <v>0.0008278904955020159</v>
+        <v>0.002598699709681886</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.064354361345579</v>
+        <v>0.5997784123568408</v>
       </c>
       <c r="L20">
-        <v>0.2862237960722354</v>
+        <v>0.2780102407456582</v>
       </c>
       <c r="M20">
-        <v>0.3333404043934678</v>
+        <v>0.291148618953585</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.576833963701091</v>
+        <v>1.137756373585603</v>
       </c>
       <c r="C21">
-        <v>0.1285772584097344</v>
+        <v>0.07034456595298977</v>
       </c>
       <c r="D21">
-        <v>0.6587024202618181</v>
+        <v>0.387439352709066</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>10.70883457248698</v>
+        <v>5.830534703984938</v>
       </c>
       <c r="G21">
-        <v>0.0008164858193058657</v>
+        <v>0.002592983011473009</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.223969782442197</v>
+        <v>0.624777268078816</v>
       </c>
       <c r="L21">
-        <v>0.3175126167646596</v>
+        <v>0.2845237176952651</v>
       </c>
       <c r="M21">
-        <v>0.3756354153063697</v>
+        <v>0.2984104357110482</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.705201611687244</v>
+        <v>1.157779024354824</v>
       </c>
       <c r="C22">
-        <v>0.1365562733550547</v>
+        <v>0.07214753906175631</v>
       </c>
       <c r="D22">
-        <v>0.697364154624097</v>
+        <v>0.398548116515542</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>11.4423484168118</v>
+        <v>6.028424078739818</v>
       </c>
       <c r="G22">
-        <v>0.0008090628400341249</v>
+        <v>0.002589380632739614</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.332479053122313</v>
+        <v>0.6417258706167672</v>
       </c>
       <c r="L22">
-        <v>0.3385785369035688</v>
+        <v>0.2888863054438247</v>
       </c>
       <c r="M22">
-        <v>0.4042585849242002</v>
+        <v>0.3033355258878245</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.63621466723751</v>
+        <v>1.147014909165961</v>
       </c>
       <c r="C23">
-        <v>0.1322626317816855</v>
+        <v>0.07118787466393428</v>
       </c>
       <c r="D23">
-        <v>0.6766389746282471</v>
+        <v>0.3926246434395466</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>11.04908417908138</v>
+        <v>5.92277585211491</v>
       </c>
       <c r="G23">
-        <v>0.000813023038815764</v>
+        <v>0.002591291089561605</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.274143914561307</v>
+        <v>0.6326239699095026</v>
       </c>
       <c r="L23">
-        <v>0.3272738199166696</v>
+        <v>0.2865482289287939</v>
       </c>
       <c r="M23">
-        <v>0.3888839120334922</v>
+        <v>0.3006904962181238</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.384657877268239</v>
+        <v>1.107949915547039</v>
       </c>
       <c r="C24">
-        <v>0.1166996849084825</v>
+        <v>0.06749470049073381</v>
       </c>
       <c r="D24">
-        <v>0.5999700458301902</v>
+        <v>0.3700674745829815</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>9.595675900160558</v>
+        <v>5.52330399478538</v>
       </c>
       <c r="G24">
-        <v>0.0008280776734871942</v>
+        <v>0.002598795414786118</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.061808251154275</v>
+        <v>0.5993800662707827</v>
       </c>
       <c r="L24">
-        <v>0.285721754246012</v>
+        <v>0.2779055619372741</v>
       </c>
       <c r="M24">
-        <v>0.3326639460899088</v>
+        <v>0.2910329445995643</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.130028271137689</v>
+        <v>1.069427236145884</v>
       </c>
       <c r="C25">
-        <v>0.1009954140048706</v>
+        <v>0.06337874044557523</v>
       </c>
       <c r="D25">
-        <v>0.5202035467853818</v>
+        <v>0.3454574379556021</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>8.087908222351359</v>
+        <v>5.093643978159804</v>
       </c>
       <c r="G25">
-        <v>0.0008445579313707349</v>
+        <v>0.002607468987460441</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8473490749902055</v>
+        <v>0.5661158426975703</v>
       </c>
       <c r="L25">
-        <v>0.2430985139948376</v>
+        <v>0.2690352610656959</v>
       </c>
       <c r="M25">
-        <v>0.2754967496713476</v>
+        <v>0.2813814469509879</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_234/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_234/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.044143055898587</v>
+        <v>0.9534549399229491</v>
       </c>
       <c r="C2">
-        <v>0.06022667446837104</v>
+        <v>0.09002155266437128</v>
       </c>
       <c r="D2">
-        <v>0.3270776345368063</v>
+        <v>0.4631594793174258</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>4.778112276208446</v>
+        <v>7.01461314810237</v>
       </c>
       <c r="G2">
-        <v>0.002614359305205317</v>
+        <v>0.0008570062344712965</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.5438196910038471</v>
+        <v>0.698754070757829</v>
       </c>
       <c r="L2">
-        <v>0.2628897277578517</v>
+        <v>0.2131705083337891</v>
       </c>
       <c r="M2">
-        <v>0.2749282348159738</v>
+        <v>0.2356908167477805</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.028915416720679</v>
+        <v>0.8391424912128969</v>
       </c>
       <c r="C3">
-        <v>0.05801084374200727</v>
+        <v>0.08281130315411644</v>
       </c>
       <c r="D3">
-        <v>0.3144497402019226</v>
+        <v>0.4251994210012668</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>4.564674969141379</v>
+        <v>6.304015796396698</v>
       </c>
       <c r="G3">
-        <v>0.002619346392822724</v>
+        <v>0.0008656835535586849</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.530062495270613</v>
+        <v>0.6025103821368276</v>
       </c>
       <c r="L3">
-        <v>0.2589639369865324</v>
+        <v>0.1936117296942115</v>
       </c>
       <c r="M3">
-        <v>0.2709598082021856</v>
+        <v>0.2098444457282227</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.020502663823834</v>
+        <v>0.771178206027912</v>
       </c>
       <c r="C4">
-        <v>0.05660976884723112</v>
+        <v>0.0784562835335656</v>
       </c>
       <c r="D4">
-        <v>0.3066083428495858</v>
+        <v>0.4021344814328671</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>4.43378742677848</v>
+        <v>5.874193638872299</v>
       </c>
       <c r="G4">
-        <v>0.002622566071081746</v>
+        <v>0.0008711434175427488</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5222778340966983</v>
+        <v>0.5452313577289374</v>
       </c>
       <c r="L4">
-        <v>0.2566710397393948</v>
+        <v>0.1819063365508597</v>
       </c>
       <c r="M4">
-        <v>0.2687222581441588</v>
+        <v>0.194447334128153</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.017309622114709</v>
+        <v>0.7439856670506799</v>
       </c>
       <c r="C5">
-        <v>0.05602844316561928</v>
+        <v>0.07669439990325699</v>
       </c>
       <c r="D5">
-        <v>0.3033904164351924</v>
+        <v>0.3927825958324718</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>4.380486876569421</v>
+        <v>5.700428564858612</v>
       </c>
       <c r="G5">
-        <v>0.00262391788221197</v>
+        <v>0.0008734033001795212</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5192714361903086</v>
+        <v>0.5222945077115213</v>
       </c>
       <c r="L5">
-        <v>0.2557661997502336</v>
+        <v>0.1772055353512485</v>
       </c>
       <c r="M5">
-        <v>0.2678604371157043</v>
+        <v>0.1882803494640157</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.016793615113357</v>
+        <v>0.7394992331703918</v>
       </c>
       <c r="C6">
-        <v>0.05593128250278312</v>
+        <v>0.0764024690024776</v>
       </c>
       <c r="D6">
-        <v>0.3028547116848728</v>
+        <v>0.3912321954008604</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>4.371638490438698</v>
+        <v>5.671652359118298</v>
       </c>
       <c r="G6">
-        <v>0.002624144755269342</v>
+        <v>0.0008737807113425988</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5187822287900445</v>
+        <v>0.5185088879012483</v>
       </c>
       <c r="L6">
-        <v>0.2556177348442077</v>
+        <v>0.1764289548841518</v>
       </c>
       <c r="M6">
-        <v>0.2677203504595163</v>
+        <v>0.1872625018362513</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.020458649480332</v>
+        <v>0.7708095097295313</v>
       </c>
       <c r="C7">
-        <v>0.05660197113562049</v>
+        <v>0.07843247689737609</v>
       </c>
       <c r="D7">
-        <v>0.3065650363785295</v>
+        <v>0.4020081846552443</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>4.433068451652304</v>
+        <v>5.871844853927399</v>
       </c>
       <c r="G7">
-        <v>0.002622584140959106</v>
+        <v>0.0008711737515344815</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5222366178103215</v>
+        <v>0.5449204491726221</v>
       </c>
       <c r="L7">
-        <v>0.2566587171994854</v>
+        <v>0.1818426685715053</v>
       </c>
       <c r="M7">
-        <v>0.2687104329613597</v>
+        <v>0.1943637432651357</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.03869781357858</v>
+        <v>0.9135432645860817</v>
       </c>
       <c r="C8">
-        <v>0.05947096216314307</v>
+        <v>0.08751713687842866</v>
       </c>
       <c r="D8">
-        <v>0.322741513323578</v>
+        <v>0.4500118350891711</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>4.7044826052269</v>
+        <v>6.768101510177218</v>
       </c>
       <c r="G8">
-        <v>0.002616046230353132</v>
+        <v>0.0008599718927581566</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.5389383579275062</v>
+        <v>0.665160028243136</v>
       </c>
       <c r="L8">
-        <v>0.2615116990359354</v>
+        <v>0.2063591012160231</v>
       </c>
       <c r="M8">
-        <v>0.2735185622772498</v>
+        <v>0.2266737147163624</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.081923360638257</v>
+        <v>1.213894234331548</v>
       </c>
       <c r="C9">
-        <v>0.06478356804336372</v>
+        <v>0.1061732038885559</v>
       </c>
       <c r="D9">
-        <v>0.3537863677284037</v>
+        <v>0.5467595803513632</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>5.238232127359481</v>
+        <v>8.589172925000724</v>
       </c>
       <c r="G9">
-        <v>0.00260446939393711</v>
+        <v>0.0008389642953530604</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5769775059563642</v>
+        <v>0.9179468843528014</v>
       </c>
       <c r="L9">
-        <v>0.2719631277731622</v>
+        <v>0.2572034573915829</v>
       </c>
       <c r="M9">
-        <v>0.2845307687727967</v>
+        <v>0.2943554859334512</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.118267180026351</v>
+        <v>1.451438311835034</v>
       </c>
       <c r="C10">
-        <v>0.06850716210200147</v>
+        <v>0.1208203600242044</v>
       </c>
       <c r="D10">
-        <v>0.3762110059565202</v>
+        <v>0.6205052474481931</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>5.631621853487246</v>
+        <v>9.984675527181935</v>
       </c>
       <c r="G10">
-        <v>0.002596713283677366</v>
+        <v>0.0008239780501350083</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.6081973809864678</v>
+        <v>1.118123315499361</v>
       </c>
       <c r="L10">
-        <v>0.2802156436616627</v>
+        <v>0.2968043204912902</v>
       </c>
       <c r="M10">
-        <v>0.2935937150799006</v>
+        <v>0.3476129672297859</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.135805831765424</v>
+        <v>1.564313407452772</v>
       </c>
       <c r="C11">
-        <v>0.07016462934291923</v>
+        <v>0.1278012939769617</v>
       </c>
       <c r="D11">
-        <v>0.3863354803887376</v>
+        <v>0.6549084690736038</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>5.810928109450572</v>
+        <v>10.63687902616124</v>
       </c>
       <c r="G11">
-        <v>0.002593345632172284</v>
+        <v>0.0008172226531821867</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6231218838657071</v>
+        <v>1.213394776498063</v>
       </c>
       <c r="L11">
-        <v>0.2840954999655168</v>
+        <v>0.3154507814682717</v>
       </c>
       <c r="M11">
-        <v>0.2979294529345395</v>
+        <v>0.3728401910415968</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.14259252223431</v>
+        <v>1.607859729397177</v>
       </c>
       <c r="C12">
-        <v>0.07078723403239096</v>
+        <v>0.1305017072093904</v>
       </c>
       <c r="D12">
-        <v>0.3901588148048347</v>
+        <v>0.6680856308919942</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>5.878882407021194</v>
+        <v>10.88681736897615</v>
       </c>
       <c r="G12">
-        <v>0.002592093343602433</v>
+        <v>0.0008146701088149231</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6288781283609239</v>
+        <v>1.250180938467224</v>
       </c>
       <c r="L12">
-        <v>0.2855828401754223</v>
+        <v>0.3226163040036454</v>
       </c>
       <c r="M12">
-        <v>0.2996020173551273</v>
+        <v>0.3825593144217549</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.14112442065607</v>
+        <v>1.598443610428518</v>
       </c>
       <c r="C13">
-        <v>0.07065336611861284</v>
+        <v>0.1299173984129958</v>
       </c>
       <c r="D13">
-        <v>0.3893358551744939</v>
+        <v>0.6652405914972803</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>5.864244720440126</v>
+        <v>10.83284884546862</v>
       </c>
       <c r="G13">
-        <v>0.002592362026974328</v>
+        <v>0.0008152196546135765</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6276337508508334</v>
+        <v>1.242225043294241</v>
       </c>
       <c r="L13">
-        <v>0.2852617081619542</v>
+        <v>0.321068195532078</v>
       </c>
       <c r="M13">
-        <v>0.2992404331469629</v>
+        <v>0.380458350989251</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.136361263847562</v>
+        <v>1.56787920838056</v>
       </c>
       <c r="C14">
-        <v>0.07021595134076719</v>
+        <v>0.1280222483811002</v>
       </c>
       <c r="D14">
-        <v>0.3866502380567454</v>
+        <v>0.6559894044775945</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>5.81651762455391</v>
+        <v>10.65737934456712</v>
       </c>
       <c r="G14">
-        <v>0.002593242146158802</v>
+        <v>0.0008170125627014447</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6235933515402223</v>
+        <v>1.216406342663646</v>
       </c>
       <c r="L14">
-        <v>0.2842175008911454</v>
+        <v>0.3160381141150168</v>
       </c>
       <c r="M14">
-        <v>0.2980664397133026</v>
+        <v>0.3736363212108813</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.133462617199484</v>
+        <v>1.549265743998291</v>
       </c>
       <c r="C15">
-        <v>0.06994737130633766</v>
+        <v>0.1268691832678286</v>
       </c>
       <c r="D15">
-        <v>0.3850038544867971</v>
+        <v>0.6503430833464563</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>5.787290682540856</v>
+        <v>10.55029989075791</v>
       </c>
       <c r="G15">
-        <v>0.002593784231768284</v>
+        <v>0.000818111390598451</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6211321432989223</v>
+        <v>1.200687288865083</v>
       </c>
       <c r="L15">
-        <v>0.283580255157716</v>
+        <v>0.3129710903613727</v>
       </c>
       <c r="M15">
-        <v>0.297351337558581</v>
+        <v>0.3694799786425094</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.117141272788473</v>
+        <v>1.444167661443828</v>
       </c>
       <c r="C16">
-        <v>0.06839812653347366</v>
+        <v>0.1203714533062303</v>
       </c>
       <c r="D16">
-        <v>0.375547843066073</v>
+        <v>0.6182763127919486</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>5.619911211206897</v>
+        <v>9.942440520029976</v>
       </c>
       <c r="G16">
-        <v>0.00259693658881998</v>
+        <v>0.0008244205025947476</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.6072366325692826</v>
+        <v>1.11199034327575</v>
       </c>
       <c r="L16">
-        <v>0.2799646196908867</v>
+        <v>0.2955995721268465</v>
       </c>
       <c r="M16">
-        <v>0.2933146574155927</v>
+        <v>0.3459862731102703</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.107386631837329</v>
+        <v>1.381000690299516</v>
       </c>
       <c r="C17">
-        <v>0.0674385261452386</v>
+        <v>0.1164741573138919</v>
       </c>
       <c r="D17">
-        <v>0.3697275719801212</v>
+        <v>0.5988412953967668</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>5.517322410133318</v>
+        <v>9.574301656766693</v>
       </c>
       <c r="G17">
-        <v>0.002598911508012567</v>
+        <v>0.0008283045640188278</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.598897763726967</v>
+        <v>1.058725189886133</v>
       </c>
       <c r="L17">
-        <v>0.2777787792854127</v>
+        <v>0.285113712147151</v>
       </c>
       <c r="M17">
-        <v>0.2908928925530176</v>
+        <v>0.3318447554985084</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.101870643240176</v>
+        <v>1.345114493918572</v>
       </c>
       <c r="C18">
-        <v>0.06688315019242097</v>
+        <v>0.1142616947696418</v>
       </c>
       <c r="D18">
-        <v>0.3663726695237557</v>
+        <v>0.5877415896414675</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>5.458348844485386</v>
+        <v>9.364162954667563</v>
       </c>
       <c r="G18">
-        <v>0.002600062557407275</v>
+        <v>0.0008305446244090708</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5941694176621013</v>
+        <v>1.028477781123911</v>
       </c>
       <c r="L18">
-        <v>0.2765333748987047</v>
+        <v>0.2791410795965419</v>
       </c>
       <c r="M18">
-        <v>0.2895199964024044</v>
+        <v>0.3238035665417485</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.10001925875946</v>
+        <v>1.333037478679074</v>
       </c>
       <c r="C19">
-        <v>0.0666945128623837</v>
+        <v>0.1135172873067383</v>
       </c>
       <c r="D19">
-        <v>0.3652355012227275</v>
+        <v>0.5839962068845068</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>5.438386908868637</v>
+        <v>9.293276113916079</v>
       </c>
       <c r="G19">
-        <v>0.00260045488532778</v>
+        <v>0.000831304204122668</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5925801281685779</v>
+        <v>1.018300467118621</v>
       </c>
       <c r="L19">
-        <v>0.2761137335239567</v>
+        <v>0.2771285179572232</v>
       </c>
       <c r="M19">
-        <v>0.2890585963321186</v>
+        <v>0.3210962368381587</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.108415232857936</v>
+        <v>1.387678033066265</v>
       </c>
       <c r="C20">
-        <v>0.06754103178256798</v>
+        <v>0.1168859376348905</v>
       </c>
       <c r="D20">
-        <v>0.370347895588452</v>
+        <v>0.6009018505866948</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>5.528239736895699</v>
+        <v>9.613321386819422</v>
       </c>
       <c r="G20">
-        <v>0.002598699709681886</v>
+        <v>0.0008278904956077765</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5997784123568408</v>
+        <v>1.064354361345863</v>
       </c>
       <c r="L20">
-        <v>0.2780102407456582</v>
+        <v>0.2862237960722069</v>
       </c>
       <c r="M20">
-        <v>0.291148618953585</v>
+        <v>0.3333404043934749</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.137756373585603</v>
+        <v>1.576833963701375</v>
       </c>
       <c r="C21">
-        <v>0.07034456595298977</v>
+        <v>0.128577258410246</v>
       </c>
       <c r="D21">
-        <v>0.387439352709066</v>
+        <v>0.6587024202619034</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>5.830534703984938</v>
+        <v>10.70883457248686</v>
       </c>
       <c r="G21">
-        <v>0.002592983011473009</v>
+        <v>0.0008164858194546332</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.624777268078816</v>
+        <v>1.223969782442225</v>
       </c>
       <c r="L21">
-        <v>0.2845237176952651</v>
+        <v>0.3175126167646454</v>
       </c>
       <c r="M21">
-        <v>0.2984104357110482</v>
+        <v>0.375635415306391</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.157779024354824</v>
+        <v>1.705201611687613</v>
       </c>
       <c r="C22">
-        <v>0.07214753906175631</v>
+        <v>0.1365562733546604</v>
       </c>
       <c r="D22">
-        <v>0.398548116515542</v>
+        <v>0.6973641546241538</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>6.028424078739818</v>
+        <v>11.4423484168118</v>
       </c>
       <c r="G22">
-        <v>0.002589380632739614</v>
+        <v>0.0008090628401593968</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6417258706167672</v>
+        <v>1.332479053122483</v>
       </c>
       <c r="L22">
-        <v>0.2888863054438247</v>
+        <v>0.3385785369033698</v>
       </c>
       <c r="M22">
-        <v>0.3033355258878245</v>
+        <v>0.4042585849242286</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.147014909165961</v>
+        <v>1.636214667237653</v>
       </c>
       <c r="C23">
-        <v>0.07118787466393428</v>
+        <v>0.1322626317812094</v>
       </c>
       <c r="D23">
-        <v>0.3926246434395466</v>
+        <v>0.6766389746285881</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>5.92277585211491</v>
+        <v>11.04908417908138</v>
       </c>
       <c r="G23">
-        <v>0.002591291089561605</v>
+        <v>0.0008130230389599662</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6326239699095026</v>
+        <v>1.27414391456125</v>
       </c>
       <c r="L23">
-        <v>0.2865482289287939</v>
+        <v>0.3272738199164991</v>
       </c>
       <c r="M23">
-        <v>0.3006904962181238</v>
+        <v>0.3888839120334566</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.107949915547039</v>
+        <v>1.384657877268268</v>
       </c>
       <c r="C24">
-        <v>0.06749470049073381</v>
+        <v>0.1166996849084683</v>
       </c>
       <c r="D24">
-        <v>0.3700674745829815</v>
+        <v>0.5999700458299628</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>5.52330399478538</v>
+        <v>9.595675900160558</v>
       </c>
       <c r="G24">
-        <v>0.002598795414786118</v>
+        <v>0.0008280776737229501</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5993800662707827</v>
+        <v>1.061808251154389</v>
       </c>
       <c r="L24">
-        <v>0.2779055619372741</v>
+        <v>0.2857217542462962</v>
       </c>
       <c r="M24">
-        <v>0.2910329445995643</v>
+        <v>0.3326639460899159</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.069427236145884</v>
+        <v>1.130028271137746</v>
       </c>
       <c r="C25">
-        <v>0.06337874044557523</v>
+        <v>0.1009954140039824</v>
       </c>
       <c r="D25">
-        <v>0.3454574379556021</v>
+        <v>0.5202035467854103</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>5.093643978159804</v>
+        <v>8.087908222351359</v>
       </c>
       <c r="G25">
-        <v>0.002607468987460441</v>
+        <v>0.0008445579312576119</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5661158426975703</v>
+        <v>0.8473490749902908</v>
       </c>
       <c r="L25">
-        <v>0.2690352610656959</v>
+        <v>0.243098513994525</v>
       </c>
       <c r="M25">
-        <v>0.2813814469509879</v>
+        <v>0.2754967496713476</v>
       </c>
       <c r="N25">
         <v>0</v>
